--- a/backend/reports/attendance_report_sem_id='2cf5ea7e-83d8-4070-b59b-b9819e71cca8'.xlsx
+++ b/backend/reports/attendance_report_sem_id='2cf5ea7e-83d8-4070-b59b-b9819e71cca8'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,38 +454,58 @@
           <t>2025-12-16 (Lec 2)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-17 (Lec 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-17 (Lec 2)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20208783</t>
+          <t>138763827</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ishfaq Ahmad</t>
+          <t>MDH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24MAL002</t>
+          <t>20208783</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tahseen Ali</t>
+          <t>Ishfaq Ahmad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,6 +514,16 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -502,12 +532,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24MAL003</t>
+          <t>24MAL002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Musheer Ahmad</t>
+          <t>Tahseen Ali</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -516,6 +546,16 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -524,20 +564,62 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24MAL003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musheer Ahmad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>24MAL004</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alina Raza</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/backend/reports/attendance_report_sem_id='2cf5ea7e-83d8-4070-b59b-b9819e71cca8'.xlsx
+++ b/backend/reports/attendance_report_sem_id='2cf5ea7e-83d8-4070-b59b-b9819e71cca8'.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alina Raza</t>
+          <t>Alina Raza Ali</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
